--- a/Code/Results/Cases/Case_0_246/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_246/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9513595810661891</v>
+        <v>1.030657477353299</v>
       </c>
       <c r="D2">
-        <v>0.9593563066421841</v>
+        <v>1.039378536622454</v>
       </c>
       <c r="E2">
-        <v>0.9645398225202348</v>
+        <v>1.030329742727043</v>
       </c>
       <c r="F2">
-        <v>0.9467096029486846</v>
+        <v>1.044746256146077</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031068009261425</v>
+        <v>1.025584116979388</v>
       </c>
       <c r="J2">
-        <v>0.9750992625297075</v>
+        <v>1.035797510637205</v>
       </c>
       <c r="K2">
-        <v>0.9714124957589904</v>
+        <v>1.04216389383017</v>
       </c>
       <c r="L2">
-        <v>0.9765163234124463</v>
+        <v>1.033141068222965</v>
       </c>
       <c r="M2">
-        <v>0.9589649094850897</v>
+        <v>1.04751643971628</v>
       </c>
       <c r="N2">
-        <v>0.9764840153279485</v>
+        <v>1.037268461909945</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9628201615000821</v>
+        <v>1.032342601505273</v>
       </c>
       <c r="D3">
-        <v>0.971435757669744</v>
+        <v>1.041087138633802</v>
       </c>
       <c r="E3">
-        <v>0.9740707350467561</v>
+        <v>1.031776279443928</v>
       </c>
       <c r="F3">
-        <v>0.9624528246828424</v>
+        <v>1.046737252912972</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035264526930504</v>
+        <v>1.025806844320412</v>
       </c>
       <c r="J3">
-        <v>0.9843783884284293</v>
+        <v>1.037120432005471</v>
       </c>
       <c r="K3">
-        <v>0.982447657959343</v>
+        <v>1.043680335249586</v>
       </c>
       <c r="L3">
-        <v>0.9850465001129397</v>
+        <v>1.034394223107119</v>
       </c>
       <c r="M3">
-        <v>0.9735897925791633</v>
+        <v>1.049315664048447</v>
       </c>
       <c r="N3">
-        <v>0.985776318649777</v>
+        <v>1.038593261978295</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9697000207990324</v>
+        <v>1.033422887584438</v>
       </c>
       <c r="D4">
-        <v>0.9786442334661347</v>
+        <v>1.042179758354416</v>
       </c>
       <c r="E4">
-        <v>0.979797434891297</v>
+        <v>1.032703939663169</v>
       </c>
       <c r="F4">
-        <v>0.9717559270250855</v>
+        <v>1.048004210847248</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037680230758241</v>
+        <v>1.025940443487851</v>
       </c>
       <c r="J4">
-        <v>0.9899118970641562</v>
+        <v>1.03796612483043</v>
       </c>
       <c r="K4">
-        <v>0.9890074255284396</v>
+        <v>1.04464819487953</v>
       </c>
       <c r="L4">
-        <v>0.990145961635611</v>
+        <v>1.035196268436914</v>
       </c>
       <c r="M4">
-        <v>0.9822076251445643</v>
+        <v>1.050458192424207</v>
       </c>
       <c r="N4">
-        <v>0.9913176855024692</v>
+        <v>1.039440155784068</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9724821946342107</v>
+        <v>1.033874658156791</v>
       </c>
       <c r="D5">
-        <v>0.9815501339347602</v>
+        <v>1.042636034448037</v>
       </c>
       <c r="E5">
-        <v>0.9821145091610043</v>
+        <v>1.033091960325584</v>
       </c>
       <c r="F5">
-        <v>0.9754863489420263</v>
+        <v>1.048531787766076</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038633573834842</v>
+        <v>1.025994100800968</v>
       </c>
       <c r="J5">
-        <v>0.9921416075898631</v>
+        <v>1.038319214212855</v>
       </c>
       <c r="K5">
-        <v>0.9916461175260111</v>
+        <v>1.045051919226941</v>
       </c>
       <c r="L5">
-        <v>0.9922035430401128</v>
+        <v>1.035531363304241</v>
       </c>
       <c r="M5">
-        <v>0.9856576343103383</v>
+        <v>1.050933374368599</v>
       </c>
       <c r="N5">
-        <v>0.9935505624728737</v>
+        <v>1.039793746593915</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9729433168670824</v>
+        <v>1.033950373796635</v>
       </c>
       <c r="D6">
-        <v>0.9820312501791749</v>
+        <v>1.042712466865067</v>
       </c>
       <c r="E6">
-        <v>0.9824986165729014</v>
+        <v>1.033156996169936</v>
       </c>
       <c r="F6">
-        <v>0.9761028585429312</v>
+        <v>1.048620075645964</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038790224855601</v>
+        <v>1.026002963335454</v>
       </c>
       <c r="J6">
-        <v>0.9925107117427114</v>
+        <v>1.03837835730214</v>
       </c>
       <c r="K6">
-        <v>0.992082667698623</v>
+        <v>1.045119521893967</v>
       </c>
       <c r="L6">
-        <v>0.9925443101684417</v>
+        <v>1.035587505754758</v>
       </c>
       <c r="M6">
-        <v>0.9862274747574903</v>
+        <v>1.051012859831812</v>
       </c>
       <c r="N6">
-        <v>0.9939201907959559</v>
+        <v>1.039852973673171</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9697376085606918</v>
+        <v>1.033428933475103</v>
       </c>
       <c r="D7">
-        <v>0.9786835280860841</v>
+        <v>1.042185867112179</v>
       </c>
       <c r="E7">
-        <v>0.9798287341886972</v>
+        <v>1.032709132106133</v>
       </c>
       <c r="F7">
-        <v>0.9718064480437935</v>
+        <v>1.04801128013035</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037693203190572</v>
+        <v>1.025941170299361</v>
       </c>
       <c r="J7">
-        <v>0.9899420519440508</v>
+        <v>1.037970852372974</v>
       </c>
       <c r="K7">
-        <v>0.989043129146481</v>
+        <v>1.044653601844401</v>
       </c>
       <c r="L7">
-        <v>0.9901737778439738</v>
+        <v>1.035200754145649</v>
       </c>
       <c r="M7">
-        <v>0.982254370821963</v>
+        <v>1.050464561940751</v>
       </c>
       <c r="N7">
-        <v>0.9913478832057521</v>
+        <v>1.039444890040265</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9553563907886422</v>
+        <v>1.031229087275287</v>
       </c>
       <c r="D8">
-        <v>0.9635791114847631</v>
+        <v>1.039958675739219</v>
       </c>
       <c r="E8">
-        <v>0.9678625238935602</v>
+        <v>1.030820353333613</v>
       </c>
       <c r="F8">
-        <v>0.9522348340238495</v>
+        <v>1.045423580101641</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032555001071106</v>
+        <v>1.025661573899713</v>
       </c>
       <c r="J8">
-        <v>0.9783439226276197</v>
+        <v>1.036246755985618</v>
       </c>
       <c r="K8">
-        <v>0.9752761224221393</v>
+        <v>1.042679176858655</v>
       </c>
       <c r="L8">
-        <v>0.9794961630761418</v>
+        <v>1.03356642385337</v>
       </c>
       <c r="M8">
-        <v>0.9641031938079844</v>
+        <v>1.048129021609352</v>
       </c>
       <c r="N8">
-        <v>0.9797332832153675</v>
+        <v>1.037718345238282</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9246652035861884</v>
+        <v>1.027273573341372</v>
       </c>
       <c r="D9">
-        <v>0.9308633133649299</v>
+        <v>1.035932854523206</v>
       </c>
       <c r="E9">
-        <v>0.942372280696758</v>
+        <v>1.027426730962282</v>
       </c>
       <c r="F9">
-        <v>0.9088256114737252</v>
+        <v>1.040697386390989</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.020540258704051</v>
+        <v>1.025087769245154</v>
       </c>
       <c r="J9">
-        <v>0.9531905981542018</v>
+        <v>1.033128069238236</v>
       </c>
       <c r="K9">
-        <v>0.9451873952921696</v>
+        <v>1.039095651353641</v>
       </c>
       <c r="L9">
-        <v>0.956475061093652</v>
+        <v>1.030617531845526</v>
       </c>
       <c r="M9">
-        <v>0.9235941231389156</v>
+        <v>1.043844716449941</v>
       </c>
       <c r="N9">
-        <v>0.9545442381360706</v>
+        <v>1.034595229598</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.897245507672338</v>
+        <v>1.024580825822473</v>
       </c>
       <c r="D10">
-        <v>0.9010123930477325</v>
+        <v>1.033178006588578</v>
       </c>
       <c r="E10">
-        <v>0.9196235888482618</v>
+        <v>1.025118261881021</v>
       </c>
       <c r="F10">
-        <v>0.8679668036735915</v>
+        <v>1.03743056685633</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.008702404287036</v>
+        <v>1.024649835117643</v>
       </c>
       <c r="J10">
-        <v>0.9302254717190933</v>
+        <v>1.030992492110232</v>
       </c>
       <c r="K10">
-        <v>0.9174327568519463</v>
+        <v>1.036633718205619</v>
       </c>
       <c r="L10">
-        <v>0.9356133566231972</v>
+        <v>1.028603195537088</v>
       </c>
       <c r="M10">
-        <v>0.8852135419930294</v>
+        <v>1.040871061958452</v>
       </c>
       <c r="N10">
-        <v>0.9315464985872874</v>
+        <v>1.03245661970552</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8814712563447694</v>
+        <v>1.023401010703701</v>
       </c>
       <c r="D11">
-        <v>0.8835146126529011</v>
+        <v>1.031967601005288</v>
       </c>
       <c r="E11">
-        <v>0.9065293105651319</v>
+        <v>1.024107243372021</v>
       </c>
       <c r="F11">
-        <v>0.8434010138844076</v>
+        <v>1.035987474428421</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.001406306279479</v>
+        <v>1.02444684781992</v>
       </c>
       <c r="J11">
-        <v>0.9167662429657921</v>
+        <v>1.030053835968519</v>
       </c>
       <c r="K11">
-        <v>0.9010272598034073</v>
+        <v>1.035549717990071</v>
       </c>
       <c r="L11">
-        <v>0.9234590174245721</v>
+        <v>1.02771900262538</v>
       </c>
       <c r="M11">
-        <v>0.8620345427924286</v>
+        <v>1.039554624418762</v>
       </c>
       <c r="N11">
-        <v>0.9180681561853615</v>
+        <v>1.031516630564421</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8743465834767418</v>
+        <v>1.022960641259292</v>
       </c>
       <c r="D12">
-        <v>0.8755182532535862</v>
+        <v>1.031515304717901</v>
       </c>
       <c r="E12">
-        <v>0.9006092802127594</v>
+        <v>1.023729942514836</v>
       </c>
       <c r="F12">
-        <v>0.8320054754819555</v>
+        <v>1.03544706679673</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9979824012996396</v>
+        <v>1.024369421693509</v>
       </c>
       <c r="J12">
-        <v>0.9106173067475305</v>
+        <v>1.029703034651682</v>
       </c>
       <c r="K12">
-        <v>0.8934940011701098</v>
+        <v>1.035144312695262</v>
       </c>
       <c r="L12">
-        <v>0.9179251975821927</v>
+        <v>1.02738873179055</v>
       </c>
       <c r="M12">
-        <v>0.8512564101237174</v>
+        <v>1.039061223190734</v>
       </c>
       <c r="N12">
-        <v>0.9119104877723768</v>
+        <v>1.031165331069477</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8759603006404663</v>
+        <v>1.023055199454487</v>
       </c>
       <c r="D13">
-        <v>0.8773349567788271</v>
+        <v>1.031612446929807</v>
       </c>
       <c r="E13">
-        <v>0.9019505855311508</v>
+        <v>1.023810955388025</v>
       </c>
       <c r="F13">
-        <v>0.8346043011356767</v>
+        <v>1.035563185739772</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9987653668898555</v>
+        <v>1.024386121961065</v>
       </c>
       <c r="J13">
-        <v>0.912014162912128</v>
+        <v>1.029778380492864</v>
       </c>
       <c r="K13">
-        <v>0.8952075683241268</v>
+        <v>1.035231399371132</v>
       </c>
       <c r="L13">
-        <v>0.9191812316636961</v>
+        <v>1.027459660093152</v>
       </c>
       <c r="M13">
-        <v>0.8537158963657773</v>
+        <v>1.039167260788248</v>
       </c>
       <c r="N13">
-        <v>0.9133093276329498</v>
+        <v>1.031240783910395</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8809171283784812</v>
+        <v>1.023364653477785</v>
       </c>
       <c r="D14">
-        <v>0.8828949121314191</v>
+        <v>1.031930269461505</v>
       </c>
       <c r="E14">
-        <v>0.9060690408778952</v>
+        <v>1.024076091812398</v>
       </c>
       <c r="F14">
-        <v>0.8425218418520425</v>
+        <v>1.035942894038076</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.001143013383721</v>
+        <v>1.02444048923928</v>
       </c>
       <c r="J14">
-        <v>0.9162896638772526</v>
+        <v>1.030024882622044</v>
       </c>
       <c r="K14">
-        <v>0.9004442841856735</v>
+        <v>1.03551626371023</v>
       </c>
       <c r="L14">
-        <v>0.9230296757169586</v>
+        <v>1.027691740175656</v>
       </c>
       <c r="M14">
-        <v>0.8612035931649671</v>
+        <v>1.039513930359664</v>
       </c>
       <c r="N14">
-        <v>0.9175909002998518</v>
+        <v>1.031487636100872</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8837620188645312</v>
+        <v>1.023555033917353</v>
       </c>
       <c r="D15">
-        <v>0.8860726314964642</v>
+        <v>1.032125731000485</v>
       </c>
       <c r="E15">
-        <v>0.9084318065315911</v>
+        <v>1.024239216028688</v>
       </c>
       <c r="F15">
-        <v>0.8470232330935111</v>
+        <v>1.0361762617989</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.00248953928436</v>
+        <v>1.02447371739471</v>
       </c>
       <c r="J15">
-        <v>0.9187335605512843</v>
+        <v>1.030176475300965</v>
       </c>
       <c r="K15">
-        <v>0.9034322295969398</v>
+        <v>1.035691410543183</v>
       </c>
       <c r="L15">
-        <v>0.9252321036453951</v>
+        <v>1.027834486922843</v>
       </c>
       <c r="M15">
-        <v>0.8654570527824139</v>
+        <v>1.039726936852581</v>
       </c>
       <c r="N15">
-        <v>0.9200382675874796</v>
+        <v>1.031639444058785</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8981739239916577</v>
+        <v>1.024658830117922</v>
       </c>
       <c r="D16">
-        <v>0.9020341913343605</v>
+        <v>1.033257962417113</v>
       </c>
       <c r="E16">
-        <v>0.920393926875922</v>
+        <v>1.025185115075969</v>
       </c>
       <c r="F16">
-        <v>0.8693865499836471</v>
+        <v>1.037525731196826</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.009120327818385</v>
+        <v>1.024663023536947</v>
       </c>
       <c r="J16">
-        <v>0.931011551280738</v>
+        <v>1.031054489882213</v>
       </c>
       <c r="K16">
-        <v>0.9183875630681483</v>
+        <v>1.036705276133188</v>
       </c>
       <c r="L16">
-        <v>0.936324919761484</v>
+        <v>1.028661620602394</v>
       </c>
       <c r="M16">
-        <v>0.8865508190418341</v>
+        <v>1.040957814940944</v>
       </c>
       <c r="N16">
-        <v>0.9323336944720738</v>
+        <v>1.032518705521449</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9059358698753605</v>
+        <v>1.02534746981081</v>
       </c>
       <c r="D17">
-        <v>0.9105447559900319</v>
+        <v>1.033963442396335</v>
       </c>
       <c r="E17">
-        <v>0.9268335609087229</v>
+        <v>1.025775359391482</v>
       </c>
       <c r="F17">
-        <v>0.8811514982935655</v>
+        <v>1.038364514269456</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.012566562725161</v>
+        <v>1.024778179663956</v>
       </c>
       <c r="J17">
-        <v>0.9375590624215956</v>
+        <v>1.031601480210056</v>
       </c>
       <c r="K17">
-        <v>0.9263268476836984</v>
+        <v>1.037336395554062</v>
       </c>
       <c r="L17">
-        <v>0.9422588022054171</v>
+        <v>1.029177224374898</v>
       </c>
       <c r="M17">
-        <v>0.8976225056446823</v>
+        <v>1.041722134867205</v>
       </c>
       <c r="N17">
-        <v>0.938890503829762</v>
+        <v>1.033066472638298</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9101436768951843</v>
+        <v>1.025747810383866</v>
       </c>
       <c r="D18">
-        <v>0.9151354116045597</v>
+        <v>1.034373249156852</v>
       </c>
       <c r="E18">
-        <v>0.9303242715564748</v>
+        <v>1.02611853867428</v>
       </c>
       <c r="F18">
-        <v>0.8874540817853543</v>
+        <v>1.03885101516579</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.014399700856543</v>
+        <v>1.02484406081666</v>
       </c>
       <c r="J18">
-        <v>0.941090917992767</v>
+        <v>1.031919189101565</v>
       </c>
       <c r="K18">
-        <v>0.9305996085557572</v>
+        <v>1.037702787505319</v>
       </c>
       <c r="L18">
-        <v>0.9454648098989897</v>
+        <v>1.029476815264117</v>
       </c>
       <c r="M18">
-        <v>0.9035463685674046</v>
+        <v>1.042165174631264</v>
       </c>
       <c r="N18">
-        <v>0.9424273750409538</v>
+        <v>1.033384632712874</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9115325557656286</v>
+        <v>1.025884091976474</v>
       </c>
       <c r="D19">
-        <v>0.9166472548206023</v>
+        <v>1.034512698252076</v>
       </c>
       <c r="E19">
-        <v>0.9314764571517853</v>
+        <v>1.026235368664053</v>
       </c>
       <c r="F19">
-        <v>0.8895231951196291</v>
+        <v>1.039016436141297</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.014999424740711</v>
+        <v>1.024866306809827</v>
       </c>
       <c r="J19">
-        <v>0.9422540625305873</v>
+        <v>1.032027293553053</v>
       </c>
       <c r="K19">
-        <v>0.9320052797900433</v>
+        <v>1.037827426140087</v>
       </c>
       <c r="L19">
-        <v>0.9465214250923909</v>
+        <v>1.029578773891835</v>
       </c>
       <c r="M19">
-        <v>0.9054900155000641</v>
+        <v>1.042315771598271</v>
       </c>
       <c r="N19">
-        <v>0.9435921713774325</v>
+        <v>1.033492890685084</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9051383324063271</v>
+        <v>1.025273723379613</v>
       </c>
       <c r="D20">
-        <v>0.9096728727296883</v>
+        <v>1.033887926090444</v>
       </c>
       <c r="E20">
-        <v>0.9261719305434963</v>
+        <v>1.025712145887143</v>
       </c>
       <c r="F20">
-        <v>0.8799510740306986</v>
+        <v>1.03827480557281</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.012216354783998</v>
+        <v>1.024765957814302</v>
       </c>
       <c r="J20">
-        <v>0.9368882747474591</v>
+        <v>1.031542932407706</v>
       </c>
       <c r="K20">
-        <v>0.9255145738093629</v>
+        <v>1.037268861710297</v>
       </c>
       <c r="L20">
-        <v>0.9416503068688629</v>
+        <v>1.02912202444195</v>
       </c>
       <c r="M20">
-        <v>0.8964936299545943</v>
+        <v>1.041640418230662</v>
       </c>
       <c r="N20">
-        <v>0.9382187635601876</v>
+        <v>1.033007841691353</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8795048398584352</v>
+        <v>1.023273586329216</v>
       </c>
       <c r="D21">
-        <v>0.8813138430926352</v>
+        <v>1.031836753638651</v>
       </c>
       <c r="E21">
-        <v>0.9048958489786788</v>
+        <v>1.023998064802178</v>
       </c>
       <c r="F21">
-        <v>0.8402758034965909</v>
+        <v>1.035831201042654</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.000469714004027</v>
+        <v>1.024424535575504</v>
       </c>
       <c r="J21">
-        <v>0.9150737826877571</v>
+        <v>1.029952353439156</v>
       </c>
       <c r="K21">
-        <v>0.8989562844963758</v>
+        <v>1.035432454930857</v>
       </c>
       <c r="L21">
-        <v>0.9219346395963145</v>
+        <v>1.027623449590269</v>
       </c>
       <c r="M21">
-        <v>0.8590803042908154</v>
+        <v>1.039411967483225</v>
       </c>
       <c r="N21">
-        <v>0.9163732924196034</v>
+        <v>1.031415003918226</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8527686834489949</v>
+        <v>1.022003647650606</v>
       </c>
       <c r="D22">
-        <v>0.8508661291549036</v>
+        <v>1.030531458323279</v>
       </c>
       <c r="E22">
-        <v>0.8826375935680959</v>
+        <v>1.022910126469834</v>
       </c>
       <c r="F22">
-        <v>0.7961113646779417</v>
+        <v>1.03426942652756</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.98704082563211</v>
+        <v>1.024198127467092</v>
       </c>
       <c r="J22">
-        <v>0.8916719606167861</v>
+        <v>1.028939870823251</v>
       </c>
       <c r="K22">
-        <v>0.8701104838252699</v>
+        <v>1.034261836426627</v>
       </c>
       <c r="L22">
-        <v>0.9009573620072974</v>
+        <v>1.026670554479142</v>
       </c>
       <c r="M22">
-        <v>0.8171940251029693</v>
+        <v>1.037985246083536</v>
       </c>
       <c r="N22">
-        <v>0.8929382370770654</v>
+        <v>1.030401083460873</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8691670720921542</v>
+        <v>1.02267805790813</v>
       </c>
       <c r="D23">
-        <v>0.8696639781970058</v>
+        <v>1.03122492452058</v>
       </c>
       <c r="E23">
-        <v>0.8963020778224382</v>
+        <v>1.02348784834587</v>
       </c>
       <c r="F23">
-        <v>0.8235899216240093</v>
+        <v>1.035099790536897</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9954384703861715</v>
+        <v>1.0243192710006</v>
       </c>
       <c r="J23">
-        <v>0.9061165556575105</v>
+        <v>1.029477801423429</v>
       </c>
       <c r="K23">
-        <v>0.8879635133798636</v>
+        <v>1.034883940579812</v>
       </c>
       <c r="L23">
-        <v>0.913882642834986</v>
+        <v>1.027176729801385</v>
       </c>
       <c r="M23">
-        <v>0.8432860408505294</v>
+        <v>1.038744035504078</v>
       </c>
       <c r="N23">
-        <v>0.9074033450995659</v>
+        <v>1.030939777984205</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9054996628311388</v>
+        <v>1.025307050328423</v>
       </c>
       <c r="D24">
-        <v>0.9100679574315271</v>
+        <v>1.033922053870422</v>
       </c>
       <c r="E24">
-        <v>0.9264716878821668</v>
+        <v>1.025740712746188</v>
       </c>
       <c r="F24">
-        <v>0.8804951692621398</v>
+        <v>1.038315349554819</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.012375128606898</v>
+        <v>1.024771484319307</v>
       </c>
       <c r="J24">
-        <v>0.9371922348988256</v>
+        <v>1.031569391781517</v>
       </c>
       <c r="K24">
-        <v>0.9258826775866382</v>
+        <v>1.037299382687761</v>
       </c>
       <c r="L24">
-        <v>0.9419260238163977</v>
+        <v>1.029146970473218</v>
       </c>
       <c r="M24">
-        <v>0.8970053186671981</v>
+        <v>1.041677351031598</v>
       </c>
       <c r="N24">
-        <v>0.9385231553698338</v>
+        <v>1.03303433864051</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9334618985480669</v>
+        <v>1.028305797554059</v>
       </c>
       <c r="D25">
-        <v>0.940309951647518</v>
+        <v>1.036985911177601</v>
       </c>
       <c r="E25">
-        <v>0.949673344486616</v>
+        <v>1.028312019201325</v>
       </c>
       <c r="F25">
-        <v>0.921502657029834</v>
+        <v>1.041939348513086</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.024120216531991</v>
+        <v>1.0252458078025</v>
       </c>
       <c r="J25">
-        <v>0.9604565523975351</v>
+        <v>1.033944101689407</v>
       </c>
       <c r="K25">
-        <v>0.9539114023873311</v>
+        <v>1.040034718137619</v>
       </c>
       <c r="L25">
-        <v>0.9631066184277431</v>
+        <v>1.031388268535982</v>
       </c>
       <c r="M25">
-        <v>0.9354554274635249</v>
+        <v>1.044972707749164</v>
       </c>
       <c r="N25">
-        <v>0.9618205108678458</v>
+        <v>1.035412420908852</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_246/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_246/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030657477353299</v>
+        <v>0.9513595810661882</v>
       </c>
       <c r="D2">
-        <v>1.039378536622454</v>
+        <v>0.959356306642183</v>
       </c>
       <c r="E2">
-        <v>1.030329742727043</v>
+        <v>0.9645398225202341</v>
       </c>
       <c r="F2">
-        <v>1.044746256146077</v>
+        <v>0.9467096029486833</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.025584116979388</v>
+        <v>1.031068009261425</v>
       </c>
       <c r="J2">
-        <v>1.035797510637205</v>
+        <v>0.9750992625297066</v>
       </c>
       <c r="K2">
-        <v>1.04216389383017</v>
+        <v>0.9714124957589895</v>
       </c>
       <c r="L2">
-        <v>1.033141068222965</v>
+        <v>0.9765163234124457</v>
       </c>
       <c r="M2">
-        <v>1.04751643971628</v>
+        <v>0.9589649094850886</v>
       </c>
       <c r="N2">
-        <v>1.037268461909945</v>
+        <v>0.9764840153279477</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032342601505273</v>
+        <v>0.962820161500082</v>
       </c>
       <c r="D3">
-        <v>1.041087138633802</v>
+        <v>0.9714357576697442</v>
       </c>
       <c r="E3">
-        <v>1.031776279443928</v>
+        <v>0.9740707350467561</v>
       </c>
       <c r="F3">
-        <v>1.046737252912972</v>
+        <v>0.9624528246828427</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.025806844320412</v>
+        <v>1.035264526930505</v>
       </c>
       <c r="J3">
-        <v>1.037120432005471</v>
+        <v>0.9843783884284293</v>
       </c>
       <c r="K3">
-        <v>1.043680335249586</v>
+        <v>0.9824476579593434</v>
       </c>
       <c r="L3">
-        <v>1.034394223107119</v>
+        <v>0.9850465001129397</v>
       </c>
       <c r="M3">
-        <v>1.049315664048447</v>
+        <v>0.9735897925791636</v>
       </c>
       <c r="N3">
-        <v>1.038593261978295</v>
+        <v>0.9857763186497772</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033422887584438</v>
+        <v>0.9697000207990319</v>
       </c>
       <c r="D4">
-        <v>1.042179758354416</v>
+        <v>0.9786442334661345</v>
       </c>
       <c r="E4">
-        <v>1.032703939663169</v>
+        <v>0.9797974348912967</v>
       </c>
       <c r="F4">
-        <v>1.048004210847248</v>
+        <v>0.9717559270250853</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.025940443487851</v>
+        <v>1.037680230758241</v>
       </c>
       <c r="J4">
-        <v>1.03796612483043</v>
+        <v>0.9899118970641561</v>
       </c>
       <c r="K4">
-        <v>1.04464819487953</v>
+        <v>0.9890074255284393</v>
       </c>
       <c r="L4">
-        <v>1.035196268436914</v>
+        <v>0.9901459616356109</v>
       </c>
       <c r="M4">
-        <v>1.050458192424207</v>
+        <v>0.9822076251445641</v>
       </c>
       <c r="N4">
-        <v>1.039440155784068</v>
+        <v>0.9913176855024688</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033874658156791</v>
+        <v>0.97248219463421</v>
       </c>
       <c r="D5">
-        <v>1.042636034448037</v>
+        <v>0.9815501339347592</v>
       </c>
       <c r="E5">
-        <v>1.033091960325584</v>
+        <v>0.9821145091610034</v>
       </c>
       <c r="F5">
-        <v>1.048531787766076</v>
+        <v>0.9754863489420256</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.025994100800968</v>
+        <v>1.038633573834842</v>
       </c>
       <c r="J5">
-        <v>1.038319214212855</v>
+        <v>0.9921416075898624</v>
       </c>
       <c r="K5">
-        <v>1.045051919226941</v>
+        <v>0.9916461175260102</v>
       </c>
       <c r="L5">
-        <v>1.035531363304241</v>
+        <v>0.9922035430401122</v>
       </c>
       <c r="M5">
-        <v>1.050933374368599</v>
+        <v>0.9856576343103375</v>
       </c>
       <c r="N5">
-        <v>1.039793746593915</v>
+        <v>0.9935505624728731</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033950373796635</v>
+        <v>0.9729433168670827</v>
       </c>
       <c r="D6">
-        <v>1.042712466865067</v>
+        <v>0.9820312501791756</v>
       </c>
       <c r="E6">
-        <v>1.033156996169936</v>
+        <v>0.9824986165729017</v>
       </c>
       <c r="F6">
-        <v>1.048620075645964</v>
+        <v>0.9761028585429318</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.026002963335454</v>
+        <v>1.038790224855601</v>
       </c>
       <c r="J6">
-        <v>1.03837835730214</v>
+        <v>0.9925107117427118</v>
       </c>
       <c r="K6">
-        <v>1.045119521893967</v>
+        <v>0.9920826676986235</v>
       </c>
       <c r="L6">
-        <v>1.035587505754758</v>
+        <v>0.9925443101684419</v>
       </c>
       <c r="M6">
-        <v>1.051012859831812</v>
+        <v>0.9862274747574907</v>
       </c>
       <c r="N6">
-        <v>1.039852973673171</v>
+        <v>0.9939201907959564</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033428933475103</v>
+        <v>0.9697376085606921</v>
       </c>
       <c r="D7">
-        <v>1.042185867112179</v>
+        <v>0.9786835280860839</v>
       </c>
       <c r="E7">
-        <v>1.032709132106133</v>
+        <v>0.9798287341886972</v>
       </c>
       <c r="F7">
-        <v>1.04801128013035</v>
+        <v>0.9718064480437937</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.025941170299361</v>
+        <v>1.037693203190572</v>
       </c>
       <c r="J7">
-        <v>1.037970852372974</v>
+        <v>0.9899420519440509</v>
       </c>
       <c r="K7">
-        <v>1.044653601844401</v>
+        <v>0.989043129146481</v>
       </c>
       <c r="L7">
-        <v>1.035200754145649</v>
+        <v>0.9901737778439739</v>
       </c>
       <c r="M7">
-        <v>1.050464561940751</v>
+        <v>0.9822543708219631</v>
       </c>
       <c r="N7">
-        <v>1.039444890040265</v>
+        <v>0.9913478832057518</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031229087275287</v>
+        <v>0.9553563907886417</v>
       </c>
       <c r="D8">
-        <v>1.039958675739219</v>
+        <v>0.9635791114847625</v>
       </c>
       <c r="E8">
-        <v>1.030820353333613</v>
+        <v>0.9678625238935598</v>
       </c>
       <c r="F8">
-        <v>1.045423580101641</v>
+        <v>0.9522348340238487</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.025661573899713</v>
+        <v>1.032555001071106</v>
       </c>
       <c r="J8">
-        <v>1.036246755985618</v>
+        <v>0.9783439226276192</v>
       </c>
       <c r="K8">
-        <v>1.042679176858655</v>
+        <v>0.9752761224221386</v>
       </c>
       <c r="L8">
-        <v>1.03356642385337</v>
+        <v>0.9794961630761413</v>
       </c>
       <c r="M8">
-        <v>1.048129021609352</v>
+        <v>0.9641031938079838</v>
       </c>
       <c r="N8">
-        <v>1.037718345238282</v>
+        <v>0.9797332832153667</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027273573341372</v>
+        <v>0.9246652035861875</v>
       </c>
       <c r="D9">
-        <v>1.035932854523206</v>
+        <v>0.9308633133649291</v>
       </c>
       <c r="E9">
-        <v>1.027426730962282</v>
+        <v>0.9423722806967569</v>
       </c>
       <c r="F9">
-        <v>1.040697386390989</v>
+        <v>0.908825611473724</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025087769245154</v>
+        <v>1.02054025870405</v>
       </c>
       <c r="J9">
-        <v>1.033128069238236</v>
+        <v>0.9531905981542009</v>
       </c>
       <c r="K9">
-        <v>1.039095651353641</v>
+        <v>0.9451873952921686</v>
       </c>
       <c r="L9">
-        <v>1.030617531845526</v>
+        <v>0.9564750610936509</v>
       </c>
       <c r="M9">
-        <v>1.043844716449941</v>
+        <v>0.9235941231389146</v>
       </c>
       <c r="N9">
-        <v>1.034595229598</v>
+        <v>0.9545442381360696</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024580825822473</v>
+        <v>0.8972455076723374</v>
       </c>
       <c r="D10">
-        <v>1.033178006588578</v>
+        <v>0.9010123930477314</v>
       </c>
       <c r="E10">
-        <v>1.025118261881021</v>
+        <v>0.9196235888482608</v>
       </c>
       <c r="F10">
-        <v>1.03743056685633</v>
+        <v>0.8679668036735905</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024649835117643</v>
+        <v>1.008702404287035</v>
       </c>
       <c r="J10">
-        <v>1.030992492110232</v>
+        <v>0.9302254717190924</v>
       </c>
       <c r="K10">
-        <v>1.036633718205619</v>
+        <v>0.9174327568519453</v>
       </c>
       <c r="L10">
-        <v>1.028603195537088</v>
+        <v>0.9356133566231964</v>
       </c>
       <c r="M10">
-        <v>1.040871061958452</v>
+        <v>0.8852135419930284</v>
       </c>
       <c r="N10">
-        <v>1.03245661970552</v>
+        <v>0.9315464985872867</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023401010703701</v>
+        <v>0.8814712563447683</v>
       </c>
       <c r="D11">
-        <v>1.031967601005288</v>
+        <v>0.8835146126528997</v>
       </c>
       <c r="E11">
-        <v>1.024107243372021</v>
+        <v>0.9065293105651305</v>
       </c>
       <c r="F11">
-        <v>1.035987474428421</v>
+        <v>0.8434010138844062</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02444684781992</v>
+        <v>1.001406306279479</v>
       </c>
       <c r="J11">
-        <v>1.030053835968519</v>
+        <v>0.9167662429657909</v>
       </c>
       <c r="K11">
-        <v>1.035549717990071</v>
+        <v>0.901027259803406</v>
       </c>
       <c r="L11">
-        <v>1.02771900262538</v>
+        <v>0.9234590174245711</v>
       </c>
       <c r="M11">
-        <v>1.039554624418762</v>
+        <v>0.8620345427924274</v>
       </c>
       <c r="N11">
-        <v>1.031516630564421</v>
+        <v>0.9180681561853601</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022960641259292</v>
+        <v>0.8743465834767413</v>
       </c>
       <c r="D12">
-        <v>1.031515304717901</v>
+        <v>0.8755182532535857</v>
       </c>
       <c r="E12">
-        <v>1.023729942514836</v>
+        <v>0.9006092802127593</v>
       </c>
       <c r="F12">
-        <v>1.03544706679673</v>
+        <v>0.8320054754819547</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024369421693509</v>
+        <v>0.9979824012996392</v>
       </c>
       <c r="J12">
-        <v>1.029703034651682</v>
+        <v>0.9106173067475302</v>
       </c>
       <c r="K12">
-        <v>1.035144312695262</v>
+        <v>0.8934940011701094</v>
       </c>
       <c r="L12">
-        <v>1.02738873179055</v>
+        <v>0.9179251975821924</v>
       </c>
       <c r="M12">
-        <v>1.039061223190734</v>
+        <v>0.8512564101237168</v>
       </c>
       <c r="N12">
-        <v>1.031165331069477</v>
+        <v>0.9119104877723766</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.023055199454487</v>
+        <v>0.875960300640467</v>
       </c>
       <c r="D13">
-        <v>1.031612446929807</v>
+        <v>0.8773349567788286</v>
       </c>
       <c r="E13">
-        <v>1.023810955388025</v>
+        <v>0.9019505855311517</v>
       </c>
       <c r="F13">
-        <v>1.035563185739772</v>
+        <v>0.8346043011356783</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024386121961065</v>
+        <v>0.9987653668898561</v>
       </c>
       <c r="J13">
-        <v>1.029778380492864</v>
+        <v>0.9120141629121288</v>
       </c>
       <c r="K13">
-        <v>1.035231399371132</v>
+        <v>0.895207568324128</v>
       </c>
       <c r="L13">
-        <v>1.027459660093152</v>
+        <v>0.919181231663697</v>
       </c>
       <c r="M13">
-        <v>1.039167260788248</v>
+        <v>0.8537158963657788</v>
       </c>
       <c r="N13">
-        <v>1.031240783910395</v>
+        <v>0.9133093276329507</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023364653477785</v>
+        <v>0.880917128378484</v>
       </c>
       <c r="D14">
-        <v>1.031930269461505</v>
+        <v>0.8828949121314221</v>
       </c>
       <c r="E14">
-        <v>1.024076091812398</v>
+        <v>0.9060690408778975</v>
       </c>
       <c r="F14">
-        <v>1.035942894038076</v>
+        <v>0.8425218418520456</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02444048923928</v>
+        <v>1.001143013383721</v>
       </c>
       <c r="J14">
-        <v>1.030024882622044</v>
+        <v>0.9162896638772551</v>
       </c>
       <c r="K14">
-        <v>1.03551626371023</v>
+        <v>0.9004442841856763</v>
       </c>
       <c r="L14">
-        <v>1.027691740175656</v>
+        <v>0.9230296757169607</v>
       </c>
       <c r="M14">
-        <v>1.039513930359664</v>
+        <v>0.8612035931649699</v>
       </c>
       <c r="N14">
-        <v>1.031487636100872</v>
+        <v>0.9175909002998544</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023555033917353</v>
+        <v>0.8837620188645332</v>
       </c>
       <c r="D15">
-        <v>1.032125731000485</v>
+        <v>0.8860726314964659</v>
       </c>
       <c r="E15">
-        <v>1.024239216028688</v>
+        <v>0.9084318065315932</v>
       </c>
       <c r="F15">
-        <v>1.0361762617989</v>
+        <v>0.8470232330935128</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02447371739471</v>
+        <v>1.00248953928436</v>
       </c>
       <c r="J15">
-        <v>1.030176475300965</v>
+        <v>0.9187335605512862</v>
       </c>
       <c r="K15">
-        <v>1.035691410543183</v>
+        <v>0.9034322295969415</v>
       </c>
       <c r="L15">
-        <v>1.027834486922843</v>
+        <v>0.9252321036453972</v>
       </c>
       <c r="M15">
-        <v>1.039726936852581</v>
+        <v>0.8654570527824155</v>
       </c>
       <c r="N15">
-        <v>1.031639444058785</v>
+        <v>0.9200382675874812</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024658830117922</v>
+        <v>0.8981739239916564</v>
       </c>
       <c r="D16">
-        <v>1.033257962417113</v>
+        <v>0.9020341913343591</v>
       </c>
       <c r="E16">
-        <v>1.025185115075969</v>
+        <v>0.9203939268759208</v>
       </c>
       <c r="F16">
-        <v>1.037525731196826</v>
+        <v>0.8693865499836455</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024663023536947</v>
+        <v>1.009120327818385</v>
       </c>
       <c r="J16">
-        <v>1.031054489882213</v>
+        <v>0.9310115512807366</v>
       </c>
       <c r="K16">
-        <v>1.036705276133188</v>
+        <v>0.918387563068147</v>
       </c>
       <c r="L16">
-        <v>1.028661620602394</v>
+        <v>0.9363249197614828</v>
       </c>
       <c r="M16">
-        <v>1.040957814940944</v>
+        <v>0.8865508190418325</v>
       </c>
       <c r="N16">
-        <v>1.032518705521449</v>
+        <v>0.9323336944720728</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02534746981081</v>
+        <v>0.9059358698753595</v>
       </c>
       <c r="D17">
-        <v>1.033963442396335</v>
+        <v>0.9105447559900307</v>
       </c>
       <c r="E17">
-        <v>1.025775359391482</v>
+        <v>0.9268335609087218</v>
       </c>
       <c r="F17">
-        <v>1.038364514269456</v>
+        <v>0.881151498293564</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024778179663956</v>
+        <v>1.01256656272516</v>
       </c>
       <c r="J17">
-        <v>1.031601480210056</v>
+        <v>0.9375590624215946</v>
       </c>
       <c r="K17">
-        <v>1.037336395554062</v>
+        <v>0.9263268476836971</v>
       </c>
       <c r="L17">
-        <v>1.029177224374898</v>
+        <v>0.9422588022054161</v>
       </c>
       <c r="M17">
-        <v>1.041722134867205</v>
+        <v>0.8976225056446807</v>
       </c>
       <c r="N17">
-        <v>1.033066472638298</v>
+        <v>0.938890503829761</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025747810383866</v>
+        <v>0.9101436768951837</v>
       </c>
       <c r="D18">
-        <v>1.034373249156852</v>
+        <v>0.9151354116045586</v>
       </c>
       <c r="E18">
-        <v>1.02611853867428</v>
+        <v>0.9303242715564745</v>
       </c>
       <c r="F18">
-        <v>1.03885101516579</v>
+        <v>0.887454081785353</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02484406081666</v>
+        <v>1.014399700856543</v>
       </c>
       <c r="J18">
-        <v>1.031919189101565</v>
+        <v>0.9410909179927665</v>
       </c>
       <c r="K18">
-        <v>1.037702787505319</v>
+        <v>0.9305996085557565</v>
       </c>
       <c r="L18">
-        <v>1.029476815264117</v>
+        <v>0.9454648098989893</v>
       </c>
       <c r="M18">
-        <v>1.042165174631264</v>
+        <v>0.9035463685674033</v>
       </c>
       <c r="N18">
-        <v>1.033384632712874</v>
+        <v>0.9424273750409532</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025884091976474</v>
+        <v>0.9115325557656281</v>
       </c>
       <c r="D19">
-        <v>1.034512698252076</v>
+        <v>0.9166472548206013</v>
       </c>
       <c r="E19">
-        <v>1.026235368664053</v>
+        <v>0.9314764571517846</v>
       </c>
       <c r="F19">
-        <v>1.039016436141297</v>
+        <v>0.8895231951196282</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024866306809827</v>
+        <v>1.014999424740711</v>
       </c>
       <c r="J19">
-        <v>1.032027293553053</v>
+        <v>0.9422540625305867</v>
       </c>
       <c r="K19">
-        <v>1.037827426140087</v>
+        <v>0.9320052797900424</v>
       </c>
       <c r="L19">
-        <v>1.029578773891835</v>
+        <v>0.9465214250923906</v>
       </c>
       <c r="M19">
-        <v>1.042315771598271</v>
+        <v>0.9054900155000631</v>
       </c>
       <c r="N19">
-        <v>1.033492890685084</v>
+        <v>0.9435921713774318</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025273723379613</v>
+        <v>0.905138332406326</v>
       </c>
       <c r="D20">
-        <v>1.033887926090444</v>
+        <v>0.9096728727296867</v>
       </c>
       <c r="E20">
-        <v>1.025712145887143</v>
+        <v>0.9261719305434952</v>
       </c>
       <c r="F20">
-        <v>1.03827480557281</v>
+        <v>0.8799510740306969</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024765957814302</v>
+        <v>1.012216354783998</v>
       </c>
       <c r="J20">
-        <v>1.031542932407706</v>
+        <v>0.9368882747474578</v>
       </c>
       <c r="K20">
-        <v>1.037268861710297</v>
+        <v>0.9255145738093614</v>
       </c>
       <c r="L20">
-        <v>1.02912202444195</v>
+        <v>0.9416503068688616</v>
       </c>
       <c r="M20">
-        <v>1.041640418230662</v>
+        <v>0.8964936299545927</v>
       </c>
       <c r="N20">
-        <v>1.033007841691353</v>
+        <v>0.9382187635601864</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.023273586329216</v>
+        <v>0.879504839858436</v>
       </c>
       <c r="D21">
-        <v>1.031836753638651</v>
+        <v>0.8813138430926362</v>
       </c>
       <c r="E21">
-        <v>1.023998064802178</v>
+        <v>0.9048958489786798</v>
       </c>
       <c r="F21">
-        <v>1.035831201042654</v>
+        <v>0.8402758034965921</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024424535575504</v>
+        <v>1.000469714004027</v>
       </c>
       <c r="J21">
-        <v>1.029952353439156</v>
+        <v>0.9150737826877581</v>
       </c>
       <c r="K21">
-        <v>1.035432454930857</v>
+        <v>0.8989562844963765</v>
       </c>
       <c r="L21">
-        <v>1.027623449590269</v>
+        <v>0.9219346395963154</v>
       </c>
       <c r="M21">
-        <v>1.039411967483225</v>
+        <v>0.8590803042908165</v>
       </c>
       <c r="N21">
-        <v>1.031415003918226</v>
+        <v>0.9163732924196046</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022003647650606</v>
+        <v>0.8527686834489935</v>
       </c>
       <c r="D22">
-        <v>1.030531458323279</v>
+        <v>0.8508661291549023</v>
       </c>
       <c r="E22">
-        <v>1.022910126469834</v>
+        <v>0.8826375935680946</v>
       </c>
       <c r="F22">
-        <v>1.03426942652756</v>
+        <v>0.7961113646779406</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024198127467092</v>
+        <v>0.9870408256321098</v>
       </c>
       <c r="J22">
-        <v>1.028939870823251</v>
+        <v>0.891671960616785</v>
       </c>
       <c r="K22">
-        <v>1.034261836426627</v>
+        <v>0.8701104838252689</v>
       </c>
       <c r="L22">
-        <v>1.026670554479142</v>
+        <v>0.9009573620072963</v>
       </c>
       <c r="M22">
-        <v>1.037985246083536</v>
+        <v>0.8171940251029683</v>
       </c>
       <c r="N22">
-        <v>1.030401083460873</v>
+        <v>0.8929382370770643</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02267805790813</v>
+        <v>0.8691670720921536</v>
       </c>
       <c r="D23">
-        <v>1.03122492452058</v>
+        <v>0.8696639781970049</v>
       </c>
       <c r="E23">
-        <v>1.02348784834587</v>
+        <v>0.8963020778224376</v>
       </c>
       <c r="F23">
-        <v>1.035099790536897</v>
+        <v>0.8235899216240088</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0243192710006</v>
+        <v>0.9954384703861713</v>
       </c>
       <c r="J23">
-        <v>1.029477801423429</v>
+        <v>0.9061165556575099</v>
       </c>
       <c r="K23">
-        <v>1.034883940579812</v>
+        <v>0.8879635133798629</v>
       </c>
       <c r="L23">
-        <v>1.027176729801385</v>
+        <v>0.9138826428349853</v>
       </c>
       <c r="M23">
-        <v>1.038744035504078</v>
+        <v>0.8432860408505289</v>
       </c>
       <c r="N23">
-        <v>1.030939777984205</v>
+        <v>0.9074033450995652</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025307050328423</v>
+        <v>0.905499662831137</v>
       </c>
       <c r="D24">
-        <v>1.033922053870422</v>
+        <v>0.9100679574315251</v>
       </c>
       <c r="E24">
-        <v>1.025740712746188</v>
+        <v>0.9264716878821649</v>
       </c>
       <c r="F24">
-        <v>1.038315349554819</v>
+        <v>0.8804951692621376</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024771484319307</v>
+        <v>1.012375128606898</v>
       </c>
       <c r="J24">
-        <v>1.031569391781517</v>
+        <v>0.937192234898824</v>
       </c>
       <c r="K24">
-        <v>1.037299382687761</v>
+        <v>0.9258826775866363</v>
       </c>
       <c r="L24">
-        <v>1.029146970473218</v>
+        <v>0.9419260238163961</v>
       </c>
       <c r="M24">
-        <v>1.041677351031598</v>
+        <v>0.897005318667196</v>
       </c>
       <c r="N24">
-        <v>1.03303433864051</v>
+        <v>0.938523155369832</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028305797554059</v>
+        <v>0.933461898548066</v>
       </c>
       <c r="D25">
-        <v>1.036985911177601</v>
+        <v>0.9403099516475172</v>
       </c>
       <c r="E25">
-        <v>1.028312019201325</v>
+        <v>0.9496733444866152</v>
       </c>
       <c r="F25">
-        <v>1.041939348513086</v>
+        <v>0.9215026570298335</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.0252458078025</v>
+        <v>1.024120216531991</v>
       </c>
       <c r="J25">
-        <v>1.033944101689407</v>
+        <v>0.9604565523975345</v>
       </c>
       <c r="K25">
-        <v>1.040034718137619</v>
+        <v>0.9539114023873305</v>
       </c>
       <c r="L25">
-        <v>1.031388268535982</v>
+        <v>0.9631066184277421</v>
       </c>
       <c r="M25">
-        <v>1.044972707749164</v>
+        <v>0.9354554274635243</v>
       </c>
       <c r="N25">
-        <v>1.035412420908852</v>
+        <v>0.961820510867845</v>
       </c>
     </row>
   </sheetData>
